--- a/Empty.xlsx
+++ b/Empty.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marinakalashnikova/Documents/What_is_cognition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Documents/ILC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CFEDA07-56B5-844F-8634-5902C6FEB0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F3BB62-56FF-AD41-8D52-09C32B0269A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16620" xr2:uid="{358E6005-D299-FE42-885D-F1482D727F86}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15860" xr2:uid="{358E6005-D299-FE42-885D-F1482D727F86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>cute babies</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -85,7 +93,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -386,7 +394,13 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Empty.xlsx
+++ b/Empty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Documents/ILC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F3BB62-56FF-AD41-8D52-09C32B0269A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577C1197-CCA1-2A42-908C-3D8277CAC0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15860" xr2:uid="{358E6005-D299-FE42-885D-F1482D727F86}"/>
   </bookViews>
@@ -35,9 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>cute babies</t>
+  </si>
+  <si>
+    <t>cute babies 2</t>
   </si>
 </sst>
 </file>
@@ -389,9 +392,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13FE544C-A0DE-6144-B66C-1A6179AB8DB7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -400,6 +405,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
